--- a/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/chile_regiones_categories_.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/chile_regiones_categories_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\BX-HUB-Indicadores\01. HUB\tasa xenobia\tasa xenofobia regiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\01. HUB\volumen &amp; xenofobia\tasa xenobia\tasa xenofobia regiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06D416B0-6DEB-4490-9366-CB21CF4BA3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F933CB9-8833-417E-A400-C1B1B8F2ECD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
   <si>
     <t>Chart Data Export</t>
   </si>
@@ -443,6 +443,45 @@
   </si>
   <si>
     <t>Aisén del General Carlos Ibáñez del Campo, Chile</t>
+  </si>
+  <si>
+    <t>2024-10-07 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-10-14 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-10-21 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-10-28 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-11-04 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-11-11 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-11-18 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-11-25 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-02 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-09 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-16 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-23 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-30 03:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -784,13 +823,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DC27"/>
+  <dimension ref="A1:DP27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -798,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -806,7 +847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -814,7 +855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -822,7 +863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -830,7 +871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -838,7 +879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -846,7 +887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -854,7 +895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -862,7 +903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -870,7 +911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1192,8 +1233,47 @@
       <c r="DC12" t="s">
         <v>125</v>
       </c>
+      <c r="DD12" t="s">
+        <v>141</v>
+      </c>
+      <c r="DE12" t="s">
+        <v>142</v>
+      </c>
+      <c r="DF12" t="s">
+        <v>143</v>
+      </c>
+      <c r="DG12" t="s">
+        <v>144</v>
+      </c>
+      <c r="DH12" t="s">
+        <v>145</v>
+      </c>
+      <c r="DI12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DJ12" t="s">
+        <v>147</v>
+      </c>
+      <c r="DK12" t="s">
+        <v>148</v>
+      </c>
+      <c r="DL12" t="s">
+        <v>149</v>
+      </c>
+      <c r="DM12" t="s">
+        <v>150</v>
+      </c>
+      <c r="DN12" t="s">
+        <v>151</v>
+      </c>
+      <c r="DO12" t="s">
+        <v>152</v>
+      </c>
+      <c r="DP12" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="13" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -1513,10 +1593,49 @@
         <v>1116</v>
       </c>
       <c r="DC13">
-        <v>652</v>
+        <v>1389</v>
+      </c>
+      <c r="DD13">
+        <v>1872</v>
+      </c>
+      <c r="DE13">
+        <v>1468</v>
+      </c>
+      <c r="DF13">
+        <v>3498</v>
+      </c>
+      <c r="DG13">
+        <v>5082</v>
+      </c>
+      <c r="DH13">
+        <v>2843</v>
+      </c>
+      <c r="DI13">
+        <v>4624</v>
+      </c>
+      <c r="DJ13">
+        <v>2996</v>
+      </c>
+      <c r="DK13">
+        <v>4499</v>
+      </c>
+      <c r="DL13">
+        <v>14975</v>
+      </c>
+      <c r="DM13">
+        <v>4387</v>
+      </c>
+      <c r="DN13">
+        <v>4429</v>
+      </c>
+      <c r="DO13">
+        <v>3149</v>
+      </c>
+      <c r="DP13">
+        <v>2339</v>
       </c>
     </row>
-    <row r="14" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -1836,10 +1955,49 @@
         <v>103</v>
       </c>
       <c r="DC14">
-        <v>65</v>
+        <v>167</v>
+      </c>
+      <c r="DD14">
+        <v>181</v>
+      </c>
+      <c r="DE14">
+        <v>116</v>
+      </c>
+      <c r="DF14">
+        <v>368</v>
+      </c>
+      <c r="DG14">
+        <v>504</v>
+      </c>
+      <c r="DH14">
+        <v>298</v>
+      </c>
+      <c r="DI14">
+        <v>469</v>
+      </c>
+      <c r="DJ14">
+        <v>287</v>
+      </c>
+      <c r="DK14">
+        <v>448</v>
+      </c>
+      <c r="DL14">
+        <v>1393</v>
+      </c>
+      <c r="DM14">
+        <v>430</v>
+      </c>
+      <c r="DN14">
+        <v>416</v>
+      </c>
+      <c r="DO14">
+        <v>334</v>
+      </c>
+      <c r="DP14">
+        <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -2159,10 +2317,49 @@
         <v>60</v>
       </c>
       <c r="DC15">
-        <v>42</v>
+        <v>78</v>
+      </c>
+      <c r="DD15">
+        <v>87</v>
+      </c>
+      <c r="DE15">
+        <v>72</v>
+      </c>
+      <c r="DF15">
+        <v>199</v>
+      </c>
+      <c r="DG15">
+        <v>252</v>
+      </c>
+      <c r="DH15">
+        <v>178</v>
+      </c>
+      <c r="DI15">
+        <v>266</v>
+      </c>
+      <c r="DJ15">
+        <v>164</v>
+      </c>
+      <c r="DK15">
+        <v>232</v>
+      </c>
+      <c r="DL15">
+        <v>830</v>
+      </c>
+      <c r="DM15">
+        <v>224</v>
+      </c>
+      <c r="DN15">
+        <v>259</v>
+      </c>
+      <c r="DO15">
+        <v>161</v>
+      </c>
+      <c r="DP15">
+        <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -2482,10 +2679,49 @@
         <v>29</v>
       </c>
       <c r="DC16">
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="DD16">
+        <v>35</v>
+      </c>
+      <c r="DE16">
+        <v>30</v>
+      </c>
+      <c r="DF16">
+        <v>123</v>
+      </c>
+      <c r="DG16">
+        <v>141</v>
+      </c>
+      <c r="DH16">
+        <v>79</v>
+      </c>
+      <c r="DI16">
+        <v>144</v>
+      </c>
+      <c r="DJ16">
+        <v>85</v>
+      </c>
+      <c r="DK16">
+        <v>133</v>
+      </c>
+      <c r="DL16">
+        <v>455</v>
+      </c>
+      <c r="DM16">
+        <v>122</v>
+      </c>
+      <c r="DN16">
+        <v>116</v>
+      </c>
+      <c r="DO16">
+        <v>95</v>
+      </c>
+      <c r="DP16">
+        <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -2805,10 +3041,49 @@
         <v>24</v>
       </c>
       <c r="DC17">
-        <v>25</v>
+        <v>44</v>
+      </c>
+      <c r="DD17">
+        <v>43</v>
+      </c>
+      <c r="DE17">
+        <v>35</v>
+      </c>
+      <c r="DF17">
+        <v>76</v>
+      </c>
+      <c r="DG17">
+        <v>156</v>
+      </c>
+      <c r="DH17">
+        <v>84</v>
+      </c>
+      <c r="DI17">
+        <v>121</v>
+      </c>
+      <c r="DJ17">
+        <v>80</v>
+      </c>
+      <c r="DK17">
+        <v>111</v>
+      </c>
+      <c r="DL17">
+        <v>508</v>
+      </c>
+      <c r="DM17">
+        <v>102</v>
+      </c>
+      <c r="DN17">
+        <v>124</v>
+      </c>
+      <c r="DO17">
+        <v>75</v>
+      </c>
+      <c r="DP17">
+        <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -3128,10 +3403,49 @@
         <v>24</v>
       </c>
       <c r="DC18">
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c r="DD18">
+        <v>61</v>
+      </c>
+      <c r="DE18">
+        <v>27</v>
+      </c>
+      <c r="DF18">
+        <v>83</v>
+      </c>
+      <c r="DG18">
+        <v>138</v>
+      </c>
+      <c r="DH18">
+        <v>51</v>
+      </c>
+      <c r="DI18">
+        <v>107</v>
+      </c>
+      <c r="DJ18">
+        <v>67</v>
+      </c>
+      <c r="DK18">
+        <v>86</v>
+      </c>
+      <c r="DL18">
+        <v>349</v>
+      </c>
+      <c r="DM18">
+        <v>93</v>
+      </c>
+      <c r="DN18">
+        <v>101</v>
+      </c>
+      <c r="DO18">
+        <v>52</v>
+      </c>
+      <c r="DP18">
+        <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -3451,10 +3765,49 @@
         <v>23</v>
       </c>
       <c r="DC19">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="DD19">
+        <v>39</v>
+      </c>
+      <c r="DE19">
+        <v>23</v>
+      </c>
+      <c r="DF19">
+        <v>77</v>
+      </c>
+      <c r="DG19">
+        <v>101</v>
+      </c>
+      <c r="DH19">
+        <v>59</v>
+      </c>
+      <c r="DI19">
+        <v>107</v>
+      </c>
+      <c r="DJ19">
+        <v>72</v>
+      </c>
+      <c r="DK19">
+        <v>95</v>
+      </c>
+      <c r="DL19">
+        <v>343</v>
+      </c>
+      <c r="DM19">
+        <v>80</v>
+      </c>
+      <c r="DN19">
+        <v>82</v>
+      </c>
+      <c r="DO19">
+        <v>65</v>
+      </c>
+      <c r="DP19">
+        <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -3774,10 +4127,49 @@
         <v>9</v>
       </c>
       <c r="DC20">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="DD20">
+        <v>45</v>
+      </c>
+      <c r="DE20">
+        <v>31</v>
+      </c>
+      <c r="DF20">
+        <v>79</v>
+      </c>
+      <c r="DG20">
+        <v>93</v>
+      </c>
+      <c r="DH20">
+        <v>68</v>
+      </c>
+      <c r="DI20">
+        <v>87</v>
+      </c>
+      <c r="DJ20">
+        <v>70</v>
+      </c>
+      <c r="DK20">
+        <v>96</v>
+      </c>
+      <c r="DL20">
+        <v>313</v>
+      </c>
+      <c r="DM20">
+        <v>60</v>
+      </c>
+      <c r="DN20">
+        <v>77</v>
+      </c>
+      <c r="DO20">
+        <v>50</v>
+      </c>
+      <c r="DP20">
+        <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -4097,10 +4489,49 @@
         <v>15</v>
       </c>
       <c r="DC21">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="DD21">
+        <v>26</v>
+      </c>
+      <c r="DE21">
+        <v>20</v>
+      </c>
+      <c r="DF21">
+        <v>69</v>
+      </c>
+      <c r="DG21">
+        <v>84</v>
+      </c>
+      <c r="DH21">
+        <v>54</v>
+      </c>
+      <c r="DI21">
+        <v>86</v>
+      </c>
+      <c r="DJ21">
+        <v>42</v>
+      </c>
+      <c r="DK21">
+        <v>67</v>
+      </c>
+      <c r="DL21">
+        <v>187</v>
+      </c>
+      <c r="DM21">
+        <v>56</v>
+      </c>
+      <c r="DN21">
+        <v>60</v>
+      </c>
+      <c r="DO21">
+        <v>41</v>
+      </c>
+      <c r="DP21">
+        <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -4420,10 +4851,49 @@
         <v>23</v>
       </c>
       <c r="DC22">
+        <v>9</v>
+      </c>
+      <c r="DD22">
+        <v>11</v>
+      </c>
+      <c r="DE22">
         <v>8</v>
       </c>
+      <c r="DF22">
+        <v>10</v>
+      </c>
+      <c r="DG22">
+        <v>34</v>
+      </c>
+      <c r="DH22">
+        <v>12</v>
+      </c>
+      <c r="DI22">
+        <v>31</v>
+      </c>
+      <c r="DJ22">
+        <v>17</v>
+      </c>
+      <c r="DK22">
+        <v>33</v>
+      </c>
+      <c r="DL22">
+        <v>73</v>
+      </c>
+      <c r="DM22">
+        <v>27</v>
+      </c>
+      <c r="DN22">
+        <v>27</v>
+      </c>
+      <c r="DO22">
+        <v>15</v>
+      </c>
+      <c r="DP22">
+        <v>9</v>
+      </c>
     </row>
-    <row r="23" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -4743,10 +5213,49 @@
         <v>4</v>
       </c>
       <c r="DC23">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="DD23">
+        <v>13</v>
+      </c>
+      <c r="DE23">
+        <v>12</v>
+      </c>
+      <c r="DF23">
+        <v>55</v>
+      </c>
+      <c r="DG23">
+        <v>87</v>
+      </c>
+      <c r="DH23">
+        <v>43</v>
+      </c>
+      <c r="DI23">
+        <v>55</v>
+      </c>
+      <c r="DJ23">
+        <v>31</v>
+      </c>
+      <c r="DK23">
+        <v>45</v>
+      </c>
+      <c r="DL23">
+        <v>160</v>
+      </c>
+      <c r="DM23">
+        <v>42</v>
+      </c>
+      <c r="DN23">
+        <v>34</v>
+      </c>
+      <c r="DO23">
+        <v>33</v>
+      </c>
+      <c r="DP23">
+        <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -5066,10 +5575,49 @@
         <v>6</v>
       </c>
       <c r="DC24">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="DD24">
+        <v>6</v>
+      </c>
+      <c r="DE24">
+        <v>9</v>
+      </c>
+      <c r="DF24">
+        <v>22</v>
+      </c>
+      <c r="DG24">
+        <v>22</v>
+      </c>
+      <c r="DH24">
+        <v>12</v>
+      </c>
+      <c r="DI24">
+        <v>24</v>
+      </c>
+      <c r="DJ24">
+        <v>28</v>
+      </c>
+      <c r="DK24">
+        <v>19</v>
+      </c>
+      <c r="DL24">
+        <v>70</v>
+      </c>
+      <c r="DM24">
+        <v>22</v>
+      </c>
+      <c r="DN24">
+        <v>17</v>
+      </c>
+      <c r="DO24">
+        <v>18</v>
+      </c>
+      <c r="DP24">
+        <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -5391,8 +5939,47 @@
       <c r="DC25">
         <v>7</v>
       </c>
+      <c r="DD25">
+        <v>14</v>
+      </c>
+      <c r="DE25">
+        <v>21</v>
+      </c>
+      <c r="DF25">
+        <v>31</v>
+      </c>
+      <c r="DG25">
+        <v>53</v>
+      </c>
+      <c r="DH25">
+        <v>32</v>
+      </c>
+      <c r="DI25">
+        <v>53</v>
+      </c>
+      <c r="DJ25">
+        <v>29</v>
+      </c>
+      <c r="DK25">
+        <v>53</v>
+      </c>
+      <c r="DL25">
+        <v>198</v>
+      </c>
+      <c r="DM25">
+        <v>55</v>
+      </c>
+      <c r="DN25">
+        <v>52</v>
+      </c>
+      <c r="DO25">
+        <v>34</v>
+      </c>
+      <c r="DP25">
+        <v>33</v>
+      </c>
     </row>
-    <row r="26" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -5712,10 +6299,49 @@
         <v>12</v>
       </c>
       <c r="DC26">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="DD26">
+        <v>9</v>
+      </c>
+      <c r="DE26">
+        <v>13</v>
+      </c>
+      <c r="DF26">
+        <v>20</v>
+      </c>
+      <c r="DG26">
+        <v>18</v>
+      </c>
+      <c r="DH26">
+        <v>14</v>
+      </c>
+      <c r="DI26">
+        <v>34</v>
+      </c>
+      <c r="DJ26">
+        <v>18</v>
+      </c>
+      <c r="DK26">
+        <v>16</v>
+      </c>
+      <c r="DL26">
+        <v>48</v>
+      </c>
+      <c r="DM26">
+        <v>17</v>
+      </c>
+      <c r="DN26">
+        <v>9</v>
+      </c>
+      <c r="DO26">
+        <v>16</v>
+      </c>
+      <c r="DP26">
+        <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -6035,6 +6661,45 @@
         <v>3</v>
       </c>
       <c r="DC27">
+        <v>2</v>
+      </c>
+      <c r="DD27">
+        <v>2</v>
+      </c>
+      <c r="DE27">
+        <v>0</v>
+      </c>
+      <c r="DF27">
+        <v>3</v>
+      </c>
+      <c r="DG27">
+        <v>4</v>
+      </c>
+      <c r="DH27">
+        <v>0</v>
+      </c>
+      <c r="DI27">
+        <v>3</v>
+      </c>
+      <c r="DJ27">
+        <v>3</v>
+      </c>
+      <c r="DK27">
+        <v>3</v>
+      </c>
+      <c r="DL27">
+        <v>7</v>
+      </c>
+      <c r="DM27">
+        <v>5</v>
+      </c>
+      <c r="DN27">
+        <v>2</v>
+      </c>
+      <c r="DO27">
+        <v>5</v>
+      </c>
+      <c r="DP27">
         <v>1</v>
       </c>
     </row>

--- a/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/chile_regiones_categories_.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/chile_regiones_categories_.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\01. HUB\volumen &amp; xenofobia\tasa xenobia\tasa xenofobia regiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F933CB9-8833-417E-A400-C1B1B8F2ECD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7870564-3A7A-4E57-BCFB-4EE0E841600E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="167">
   <si>
     <t>Chart Data Export</t>
   </si>
@@ -482,6 +495,45 @@
   </si>
   <si>
     <t>2024-12-30 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-01-06 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-01-13 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-01-20 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-01-27 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-02-03 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-02-10 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-02-17 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-02-24 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-03 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-10 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-17 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-24 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-31 03:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -823,15 +875,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DP27"/>
+  <dimension ref="A1:EC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -839,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -847,7 +899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -855,7 +907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -863,7 +915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -871,7 +923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -879,7 +931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -887,7 +939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -895,7 +947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -903,7 +955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -911,7 +963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1272,8 +1324,47 @@
       <c r="DP12" t="s">
         <v>153</v>
       </c>
+      <c r="DQ12" t="s">
+        <v>154</v>
+      </c>
+      <c r="DR12" t="s">
+        <v>155</v>
+      </c>
+      <c r="DS12" t="s">
+        <v>156</v>
+      </c>
+      <c r="DT12" t="s">
+        <v>157</v>
+      </c>
+      <c r="DU12" t="s">
+        <v>158</v>
+      </c>
+      <c r="DV12" t="s">
+        <v>159</v>
+      </c>
+      <c r="DW12" t="s">
+        <v>160</v>
+      </c>
+      <c r="DX12" t="s">
+        <v>161</v>
+      </c>
+      <c r="DY12" t="s">
+        <v>162</v>
+      </c>
+      <c r="DZ12" t="s">
+        <v>163</v>
+      </c>
+      <c r="EA12" t="s">
+        <v>164</v>
+      </c>
+      <c r="EB12" t="s">
+        <v>165</v>
+      </c>
+      <c r="EC12" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="13" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -1634,8 +1725,47 @@
       <c r="DP13">
         <v>2339</v>
       </c>
+      <c r="DQ13">
+        <v>3643</v>
+      </c>
+      <c r="DR13">
+        <v>2211</v>
+      </c>
+      <c r="DS13">
+        <v>2821</v>
+      </c>
+      <c r="DT13">
+        <v>2928</v>
+      </c>
+      <c r="DU13">
+        <v>5019</v>
+      </c>
+      <c r="DV13">
+        <v>3830</v>
+      </c>
+      <c r="DW13">
+        <v>3399</v>
+      </c>
+      <c r="DX13">
+        <v>11738</v>
+      </c>
+      <c r="DY13">
+        <v>11769</v>
+      </c>
+      <c r="DZ13">
+        <v>3399</v>
+      </c>
+      <c r="EA13">
+        <v>6377</v>
+      </c>
+      <c r="EB13">
+        <v>3767</v>
+      </c>
+      <c r="EC13">
+        <v>461</v>
+      </c>
     </row>
-    <row r="14" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -1996,8 +2126,47 @@
       <c r="DP14">
         <v>219</v>
       </c>
+      <c r="DQ14">
+        <v>332</v>
+      </c>
+      <c r="DR14">
+        <v>196</v>
+      </c>
+      <c r="DS14">
+        <v>273</v>
+      </c>
+      <c r="DT14">
+        <v>283</v>
+      </c>
+      <c r="DU14">
+        <v>485</v>
+      </c>
+      <c r="DV14">
+        <v>321</v>
+      </c>
+      <c r="DW14">
+        <v>298</v>
+      </c>
+      <c r="DX14">
+        <v>1140</v>
+      </c>
+      <c r="DY14">
+        <v>1110</v>
+      </c>
+      <c r="DZ14">
+        <v>303</v>
+      </c>
+      <c r="EA14">
+        <v>602</v>
+      </c>
+      <c r="EB14">
+        <v>330</v>
+      </c>
+      <c r="EC14">
+        <v>44</v>
+      </c>
     </row>
-    <row r="15" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -2358,8 +2527,47 @@
       <c r="DP15">
         <v>112</v>
       </c>
+      <c r="DQ15">
+        <v>187</v>
+      </c>
+      <c r="DR15">
+        <v>114</v>
+      </c>
+      <c r="DS15">
+        <v>126</v>
+      </c>
+      <c r="DT15">
+        <v>134</v>
+      </c>
+      <c r="DU15">
+        <v>243</v>
+      </c>
+      <c r="DV15">
+        <v>201</v>
+      </c>
+      <c r="DW15">
+        <v>173</v>
+      </c>
+      <c r="DX15">
+        <v>672</v>
+      </c>
+      <c r="DY15">
+        <v>634</v>
+      </c>
+      <c r="DZ15">
+        <v>144</v>
+      </c>
+      <c r="EA15">
+        <v>343</v>
+      </c>
+      <c r="EB15">
+        <v>187</v>
+      </c>
+      <c r="EC15">
+        <v>22</v>
+      </c>
     </row>
-    <row r="16" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -2720,8 +2928,47 @@
       <c r="DP16">
         <v>54</v>
       </c>
+      <c r="DQ16">
+        <v>77</v>
+      </c>
+      <c r="DR16">
+        <v>39</v>
+      </c>
+      <c r="DS16">
+        <v>47</v>
+      </c>
+      <c r="DT16">
+        <v>55</v>
+      </c>
+      <c r="DU16">
+        <v>115</v>
+      </c>
+      <c r="DV16">
+        <v>73</v>
+      </c>
+      <c r="DW16">
+        <v>58</v>
+      </c>
+      <c r="DX16">
+        <v>258</v>
+      </c>
+      <c r="DY16">
+        <v>222</v>
+      </c>
+      <c r="DZ16">
+        <v>74</v>
+      </c>
+      <c r="EA16">
+        <v>111</v>
+      </c>
+      <c r="EB16">
+        <v>88</v>
+      </c>
+      <c r="EC16">
+        <v>12</v>
+      </c>
     </row>
-    <row r="17" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -3082,8 +3329,47 @@
       <c r="DP17">
         <v>67</v>
       </c>
+      <c r="DQ17">
+        <v>83</v>
+      </c>
+      <c r="DR17">
+        <v>65</v>
+      </c>
+      <c r="DS17">
+        <v>71</v>
+      </c>
+      <c r="DT17">
+        <v>69</v>
+      </c>
+      <c r="DU17">
+        <v>149</v>
+      </c>
+      <c r="DV17">
+        <v>107</v>
+      </c>
+      <c r="DW17">
+        <v>98</v>
+      </c>
+      <c r="DX17">
+        <v>316</v>
+      </c>
+      <c r="DY17">
+        <v>310</v>
+      </c>
+      <c r="DZ17">
+        <v>78</v>
+      </c>
+      <c r="EA17">
+        <v>166</v>
+      </c>
+      <c r="EB17">
+        <v>100</v>
+      </c>
+      <c r="EC17">
+        <v>8</v>
+      </c>
     </row>
-    <row r="18" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -3444,8 +3730,47 @@
       <c r="DP18">
         <v>34</v>
       </c>
+      <c r="DQ18">
+        <v>56</v>
+      </c>
+      <c r="DR18">
+        <v>43</v>
+      </c>
+      <c r="DS18">
+        <v>53</v>
+      </c>
+      <c r="DT18">
+        <v>54</v>
+      </c>
+      <c r="DU18">
+        <v>114</v>
+      </c>
+      <c r="DV18">
+        <v>66</v>
+      </c>
+      <c r="DW18">
+        <v>62</v>
+      </c>
+      <c r="DX18">
+        <v>239</v>
+      </c>
+      <c r="DY18">
+        <v>213</v>
+      </c>
+      <c r="DZ18">
+        <v>84</v>
+      </c>
+      <c r="EA18">
+        <v>135</v>
+      </c>
+      <c r="EB18">
+        <v>60</v>
+      </c>
+      <c r="EC18">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -3806,8 +4131,47 @@
       <c r="DP19">
         <v>58</v>
       </c>
+      <c r="DQ19">
+        <v>94</v>
+      </c>
+      <c r="DR19">
+        <v>76</v>
+      </c>
+      <c r="DS19">
+        <v>53</v>
+      </c>
+      <c r="DT19">
+        <v>88</v>
+      </c>
+      <c r="DU19">
+        <v>99</v>
+      </c>
+      <c r="DV19">
+        <v>120</v>
+      </c>
+      <c r="DW19">
+        <v>116</v>
+      </c>
+      <c r="DX19">
+        <v>320</v>
+      </c>
+      <c r="DY19">
+        <v>356</v>
+      </c>
+      <c r="DZ19">
+        <v>74</v>
+      </c>
+      <c r="EA19">
+        <v>180</v>
+      </c>
+      <c r="EB19">
+        <v>98</v>
+      </c>
+      <c r="EC19">
+        <v>5</v>
+      </c>
     </row>
-    <row r="20" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -4168,8 +4532,47 @@
       <c r="DP20">
         <v>31</v>
       </c>
+      <c r="DQ20">
+        <v>43</v>
+      </c>
+      <c r="DR20">
+        <v>23</v>
+      </c>
+      <c r="DS20">
+        <v>28</v>
+      </c>
+      <c r="DT20">
+        <v>21</v>
+      </c>
+      <c r="DU20">
+        <v>70</v>
+      </c>
+      <c r="DV20">
+        <v>34</v>
+      </c>
+      <c r="DW20">
+        <v>38</v>
+      </c>
+      <c r="DX20">
+        <v>199</v>
+      </c>
+      <c r="DY20">
+        <v>131</v>
+      </c>
+      <c r="DZ20">
+        <v>29</v>
+      </c>
+      <c r="EA20">
+        <v>62</v>
+      </c>
+      <c r="EB20">
+        <v>33</v>
+      </c>
+      <c r="EC20">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -4530,8 +4933,47 @@
       <c r="DP21">
         <v>23</v>
       </c>
+      <c r="DQ21">
+        <v>44</v>
+      </c>
+      <c r="DR21">
+        <v>34</v>
+      </c>
+      <c r="DS21">
+        <v>42</v>
+      </c>
+      <c r="DT21">
+        <v>49</v>
+      </c>
+      <c r="DU21">
+        <v>101</v>
+      </c>
+      <c r="DV21">
+        <v>56</v>
+      </c>
+      <c r="DW21">
+        <v>45</v>
+      </c>
+      <c r="DX21">
+        <v>252</v>
+      </c>
+      <c r="DY21">
+        <v>236</v>
+      </c>
+      <c r="DZ21">
+        <v>66</v>
+      </c>
+      <c r="EA21">
+        <v>99</v>
+      </c>
+      <c r="EB21">
+        <v>90</v>
+      </c>
+      <c r="EC21">
+        <v>11</v>
+      </c>
     </row>
-    <row r="22" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -4892,8 +5334,47 @@
       <c r="DP22">
         <v>9</v>
       </c>
+      <c r="DQ22">
+        <v>56</v>
+      </c>
+      <c r="DR22">
+        <v>33</v>
+      </c>
+      <c r="DS22">
+        <v>46</v>
+      </c>
+      <c r="DT22">
+        <v>50</v>
+      </c>
+      <c r="DU22">
+        <v>85</v>
+      </c>
+      <c r="DV22">
+        <v>75</v>
+      </c>
+      <c r="DW22">
+        <v>56</v>
+      </c>
+      <c r="DX22">
+        <v>211</v>
+      </c>
+      <c r="DY22">
+        <v>195</v>
+      </c>
+      <c r="DZ22">
+        <v>50</v>
+      </c>
+      <c r="EA22">
+        <v>104</v>
+      </c>
+      <c r="EB22">
+        <v>56</v>
+      </c>
+      <c r="EC22">
+        <v>9</v>
+      </c>
     </row>
-    <row r="23" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -5254,8 +5735,47 @@
       <c r="DP23">
         <v>31</v>
       </c>
+      <c r="DQ23">
+        <v>30</v>
+      </c>
+      <c r="DR23">
+        <v>12</v>
+      </c>
+      <c r="DS23">
+        <v>11</v>
+      </c>
+      <c r="DT23">
+        <v>16</v>
+      </c>
+      <c r="DU23">
+        <v>24</v>
+      </c>
+      <c r="DV23">
+        <v>18</v>
+      </c>
+      <c r="DW23">
+        <v>14</v>
+      </c>
+      <c r="DX23">
+        <v>43</v>
+      </c>
+      <c r="DY23">
+        <v>62</v>
+      </c>
+      <c r="DZ23">
+        <v>6</v>
+      </c>
+      <c r="EA23">
+        <v>29</v>
+      </c>
+      <c r="EB23">
+        <v>14</v>
+      </c>
+      <c r="EC23">
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -5616,8 +6136,47 @@
       <c r="DP24">
         <v>7</v>
       </c>
+      <c r="DQ24">
+        <v>11</v>
+      </c>
+      <c r="DR24">
+        <v>6</v>
+      </c>
+      <c r="DS24">
+        <v>12</v>
+      </c>
+      <c r="DT24">
+        <v>10</v>
+      </c>
+      <c r="DU24">
+        <v>19</v>
+      </c>
+      <c r="DV24">
+        <v>13</v>
+      </c>
+      <c r="DW24">
+        <v>8</v>
+      </c>
+      <c r="DX24">
+        <v>66</v>
+      </c>
+      <c r="DY24">
+        <v>71</v>
+      </c>
+      <c r="DZ24">
+        <v>16</v>
+      </c>
+      <c r="EA24">
+        <v>36</v>
+      </c>
+      <c r="EB24">
+        <v>22</v>
+      </c>
+      <c r="EC24">
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -5978,8 +6537,47 @@
       <c r="DP25">
         <v>33</v>
       </c>
+      <c r="DQ25">
+        <v>18</v>
+      </c>
+      <c r="DR25">
+        <v>20</v>
+      </c>
+      <c r="DS25">
+        <v>16</v>
+      </c>
+      <c r="DT25">
+        <v>19</v>
+      </c>
+      <c r="DU25">
+        <v>32</v>
+      </c>
+      <c r="DV25">
+        <v>20</v>
+      </c>
+      <c r="DW25">
+        <v>33</v>
+      </c>
+      <c r="DX25">
+        <v>75</v>
+      </c>
+      <c r="DY25">
+        <v>74</v>
+      </c>
+      <c r="DZ25">
+        <v>21</v>
+      </c>
+      <c r="EA25">
+        <v>41</v>
+      </c>
+      <c r="EB25">
+        <v>32</v>
+      </c>
+      <c r="EC25">
+        <v>2</v>
+      </c>
     </row>
-    <row r="26" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -6340,8 +6938,47 @@
       <c r="DP26">
         <v>7</v>
       </c>
+      <c r="DQ26">
+        <v>34</v>
+      </c>
+      <c r="DR26">
+        <v>26</v>
+      </c>
+      <c r="DS26">
+        <v>33</v>
+      </c>
+      <c r="DT26">
+        <v>34</v>
+      </c>
+      <c r="DU26">
+        <v>72</v>
+      </c>
+      <c r="DV26">
+        <v>48</v>
+      </c>
+      <c r="DW26">
+        <v>48</v>
+      </c>
+      <c r="DX26">
+        <v>157</v>
+      </c>
+      <c r="DY26">
+        <v>104</v>
+      </c>
+      <c r="DZ26">
+        <v>44</v>
+      </c>
+      <c r="EA26">
+        <v>70</v>
+      </c>
+      <c r="EB26">
+        <v>48</v>
+      </c>
+      <c r="EC26">
+        <v>6</v>
+      </c>
     </row>
-    <row r="27" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -6701,6 +7338,45 @@
       </c>
       <c r="DP27">
         <v>1</v>
+      </c>
+      <c r="DQ27">
+        <v>2</v>
+      </c>
+      <c r="DR27">
+        <v>0</v>
+      </c>
+      <c r="DS27">
+        <v>2</v>
+      </c>
+      <c r="DT27">
+        <v>2</v>
+      </c>
+      <c r="DU27">
+        <v>5</v>
+      </c>
+      <c r="DV27">
+        <v>5</v>
+      </c>
+      <c r="DW27">
+        <v>4</v>
+      </c>
+      <c r="DX27">
+        <v>12</v>
+      </c>
+      <c r="DY27">
+        <v>12</v>
+      </c>
+      <c r="DZ27">
+        <v>5</v>
+      </c>
+      <c r="EA27">
+        <v>6</v>
+      </c>
+      <c r="EB27">
+        <v>6</v>
+      </c>
+      <c r="EC27">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/chile_regiones_categories_.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/chile_regiones_categories_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\01. HUB\volumen &amp; xenofobia\tasa xenobia\tasa xenofobia regiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Documentos El Barometro/GitHub/BX-HUB-Indicadores/01. HUB/volumen &amp; xenofobia/tasa xenobia/tasa xenofobia regiones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7870564-3A7A-4E57-BCFB-4EE0E841600E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0687E5F5-045E-0944-8E9C-C376BECEF6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25680" yWindow="660" windowWidth="25360" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="180">
   <si>
     <t>Chart Data Export</t>
   </si>
@@ -534,6 +534,45 @@
   </si>
   <si>
     <t>2025-03-31 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-04-07 04:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-04-14 04:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-04-21 04:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-04-28 04:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-05-05 04:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-05-12 04:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-05-19 04:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-05-26 04:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-02 04:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-09 04:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-16 04:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-23 04:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-30 04:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -875,15 +914,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EC27"/>
+  <dimension ref="A1:EP27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="DV1" workbookViewId="0">
+      <selection activeCell="EC10" sqref="EC10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -891,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -899,7 +938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -907,7 +946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -915,7 +954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -923,7 +962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -931,7 +970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -939,7 +978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -947,7 +986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -955,7 +994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -963,7 +1002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1363,8 +1402,47 @@
       <c r="EC12" t="s">
         <v>166</v>
       </c>
+      <c r="ED12" t="s">
+        <v>167</v>
+      </c>
+      <c r="EE12" t="s">
+        <v>168</v>
+      </c>
+      <c r="EF12" t="s">
+        <v>169</v>
+      </c>
+      <c r="EG12" t="s">
+        <v>170</v>
+      </c>
+      <c r="EH12" t="s">
+        <v>171</v>
+      </c>
+      <c r="EI12" t="s">
+        <v>172</v>
+      </c>
+      <c r="EJ12" t="s">
+        <v>173</v>
+      </c>
+      <c r="EK12" t="s">
+        <v>174</v>
+      </c>
+      <c r="EL12" t="s">
+        <v>175</v>
+      </c>
+      <c r="EM12" t="s">
+        <v>176</v>
+      </c>
+      <c r="EN12" t="s">
+        <v>177</v>
+      </c>
+      <c r="EO12" t="s">
+        <v>178</v>
+      </c>
+      <c r="EP12" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="13" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -1764,8 +1842,47 @@
       <c r="EC13">
         <v>461</v>
       </c>
+      <c r="ED13">
+        <v>5810</v>
+      </c>
+      <c r="EE13">
+        <v>7791</v>
+      </c>
+      <c r="EF13">
+        <v>2844</v>
+      </c>
+      <c r="EG13">
+        <v>3986</v>
+      </c>
+      <c r="EH13">
+        <v>2512</v>
+      </c>
+      <c r="EI13">
+        <v>2096</v>
+      </c>
+      <c r="EJ13">
+        <v>1810</v>
+      </c>
+      <c r="EK13">
+        <v>5065</v>
+      </c>
+      <c r="EL13">
+        <v>1897</v>
+      </c>
+      <c r="EM13">
+        <v>3579</v>
+      </c>
+      <c r="EN13">
+        <v>3566</v>
+      </c>
+      <c r="EO13">
+        <v>2501</v>
+      </c>
+      <c r="EP13">
+        <v>761</v>
+      </c>
     </row>
-    <row r="14" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -2165,8 +2282,47 @@
       <c r="EC14">
         <v>44</v>
       </c>
+      <c r="ED14">
+        <v>585</v>
+      </c>
+      <c r="EE14">
+        <v>768</v>
+      </c>
+      <c r="EF14">
+        <v>265</v>
+      </c>
+      <c r="EG14">
+        <v>398</v>
+      </c>
+      <c r="EH14">
+        <v>269</v>
+      </c>
+      <c r="EI14">
+        <v>220</v>
+      </c>
+      <c r="EJ14">
+        <v>197</v>
+      </c>
+      <c r="EK14">
+        <v>556</v>
+      </c>
+      <c r="EL14">
+        <v>206</v>
+      </c>
+      <c r="EM14">
+        <v>341</v>
+      </c>
+      <c r="EN14">
+        <v>345</v>
+      </c>
+      <c r="EO14">
+        <v>254</v>
+      </c>
+      <c r="EP14">
+        <v>84</v>
+      </c>
     </row>
-    <row r="15" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -2566,8 +2722,47 @@
       <c r="EC15">
         <v>22</v>
       </c>
+      <c r="ED15">
+        <v>337</v>
+      </c>
+      <c r="EE15">
+        <v>435</v>
+      </c>
+      <c r="EF15">
+        <v>182</v>
+      </c>
+      <c r="EG15">
+        <v>198</v>
+      </c>
+      <c r="EH15">
+        <v>166</v>
+      </c>
+      <c r="EI15">
+        <v>95</v>
+      </c>
+      <c r="EJ15">
+        <v>86</v>
+      </c>
+      <c r="EK15">
+        <v>271</v>
+      </c>
+      <c r="EL15">
+        <v>99</v>
+      </c>
+      <c r="EM15">
+        <v>222</v>
+      </c>
+      <c r="EN15">
+        <v>204</v>
+      </c>
+      <c r="EO15">
+        <v>144</v>
+      </c>
+      <c r="EP15">
+        <v>48</v>
+      </c>
     </row>
-    <row r="16" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -2967,8 +3162,47 @@
       <c r="EC16">
         <v>12</v>
       </c>
+      <c r="ED16">
+        <v>132</v>
+      </c>
+      <c r="EE16">
+        <v>214</v>
+      </c>
+      <c r="EF16">
+        <v>83</v>
+      </c>
+      <c r="EG16">
+        <v>86</v>
+      </c>
+      <c r="EH16">
+        <v>65</v>
+      </c>
+      <c r="EI16">
+        <v>55</v>
+      </c>
+      <c r="EJ16">
+        <v>44</v>
+      </c>
+      <c r="EK16">
+        <v>127</v>
+      </c>
+      <c r="EL16">
+        <v>57</v>
+      </c>
+      <c r="EM16">
+        <v>95</v>
+      </c>
+      <c r="EN16">
+        <v>79</v>
+      </c>
+      <c r="EO16">
+        <v>79</v>
+      </c>
+      <c r="EP16">
+        <v>17</v>
+      </c>
     </row>
-    <row r="17" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -3368,8 +3602,47 @@
       <c r="EC17">
         <v>8</v>
       </c>
+      <c r="ED17">
+        <v>149</v>
+      </c>
+      <c r="EE17">
+        <v>204</v>
+      </c>
+      <c r="EF17">
+        <v>64</v>
+      </c>
+      <c r="EG17">
+        <v>93</v>
+      </c>
+      <c r="EH17">
+        <v>54</v>
+      </c>
+      <c r="EI17">
+        <v>59</v>
+      </c>
+      <c r="EJ17">
+        <v>48</v>
+      </c>
+      <c r="EK17">
+        <v>118</v>
+      </c>
+      <c r="EL17">
+        <v>35</v>
+      </c>
+      <c r="EM17">
+        <v>91</v>
+      </c>
+      <c r="EN17">
+        <v>99</v>
+      </c>
+      <c r="EO17">
+        <v>53</v>
+      </c>
+      <c r="EP17">
+        <v>16</v>
+      </c>
     </row>
-    <row r="18" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -3769,8 +4042,47 @@
       <c r="EC18">
         <v>7</v>
       </c>
+      <c r="ED18">
+        <v>105</v>
+      </c>
+      <c r="EE18">
+        <v>148</v>
+      </c>
+      <c r="EF18">
+        <v>49</v>
+      </c>
+      <c r="EG18">
+        <v>68</v>
+      </c>
+      <c r="EH18">
+        <v>53</v>
+      </c>
+      <c r="EI18">
+        <v>38</v>
+      </c>
+      <c r="EJ18">
+        <v>46</v>
+      </c>
+      <c r="EK18">
+        <v>112</v>
+      </c>
+      <c r="EL18">
+        <v>34</v>
+      </c>
+      <c r="EM18">
+        <v>54</v>
+      </c>
+      <c r="EN18">
+        <v>71</v>
+      </c>
+      <c r="EO18">
+        <v>57</v>
+      </c>
+      <c r="EP18">
+        <v>16</v>
+      </c>
     </row>
-    <row r="19" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -4170,8 +4482,47 @@
       <c r="EC19">
         <v>5</v>
       </c>
+      <c r="ED19">
+        <v>121</v>
+      </c>
+      <c r="EE19">
+        <v>218</v>
+      </c>
+      <c r="EF19">
+        <v>75</v>
+      </c>
+      <c r="EG19">
+        <v>86</v>
+      </c>
+      <c r="EH19">
+        <v>51</v>
+      </c>
+      <c r="EI19">
+        <v>42</v>
+      </c>
+      <c r="EJ19">
+        <v>68</v>
+      </c>
+      <c r="EK19">
+        <v>105</v>
+      </c>
+      <c r="EL19">
+        <v>43</v>
+      </c>
+      <c r="EM19">
+        <v>74</v>
+      </c>
+      <c r="EN19">
+        <v>129</v>
+      </c>
+      <c r="EO19">
+        <v>69</v>
+      </c>
+      <c r="EP19">
+        <v>20</v>
+      </c>
     </row>
-    <row r="20" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -4571,8 +4922,47 @@
       <c r="EC20">
         <v>7</v>
       </c>
+      <c r="ED20">
+        <v>46</v>
+      </c>
+      <c r="EE20">
+        <v>59</v>
+      </c>
+      <c r="EF20">
+        <v>19</v>
+      </c>
+      <c r="EG20">
+        <v>25</v>
+      </c>
+      <c r="EH20">
+        <v>16</v>
+      </c>
+      <c r="EI20">
+        <v>23</v>
+      </c>
+      <c r="EJ20">
+        <v>27</v>
+      </c>
+      <c r="EK20">
+        <v>61</v>
+      </c>
+      <c r="EL20">
+        <v>16</v>
+      </c>
+      <c r="EM20">
+        <v>42</v>
+      </c>
+      <c r="EN20">
+        <v>54</v>
+      </c>
+      <c r="EO20">
+        <v>13</v>
+      </c>
+      <c r="EP20">
+        <v>16</v>
+      </c>
     </row>
-    <row r="21" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -4972,8 +5362,47 @@
       <c r="EC21">
         <v>11</v>
       </c>
+      <c r="ED21">
+        <v>113</v>
+      </c>
+      <c r="EE21">
+        <v>133</v>
+      </c>
+      <c r="EF21">
+        <v>49</v>
+      </c>
+      <c r="EG21">
+        <v>56</v>
+      </c>
+      <c r="EH21">
+        <v>43</v>
+      </c>
+      <c r="EI21">
+        <v>44</v>
+      </c>
+      <c r="EJ21">
+        <v>33</v>
+      </c>
+      <c r="EK21">
+        <v>90</v>
+      </c>
+      <c r="EL21">
+        <v>26</v>
+      </c>
+      <c r="EM21">
+        <v>59</v>
+      </c>
+      <c r="EN21">
+        <v>81</v>
+      </c>
+      <c r="EO21">
+        <v>39</v>
+      </c>
+      <c r="EP21">
+        <v>12</v>
+      </c>
     </row>
-    <row r="22" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -5373,8 +5802,47 @@
       <c r="EC22">
         <v>9</v>
       </c>
+      <c r="ED22">
+        <v>106</v>
+      </c>
+      <c r="EE22">
+        <v>153</v>
+      </c>
+      <c r="EF22">
+        <v>50</v>
+      </c>
+      <c r="EG22">
+        <v>68</v>
+      </c>
+      <c r="EH22">
+        <v>57</v>
+      </c>
+      <c r="EI22">
+        <v>30</v>
+      </c>
+      <c r="EJ22">
+        <v>28</v>
+      </c>
+      <c r="EK22">
+        <v>85</v>
+      </c>
+      <c r="EL22">
+        <v>33</v>
+      </c>
+      <c r="EM22">
+        <v>78</v>
+      </c>
+      <c r="EN22">
+        <v>61</v>
+      </c>
+      <c r="EO22">
+        <v>59</v>
+      </c>
+      <c r="EP22">
+        <v>11</v>
+      </c>
     </row>
-    <row r="23" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -5774,8 +6242,47 @@
       <c r="EC23">
         <v>2</v>
       </c>
+      <c r="ED23">
+        <v>17</v>
+      </c>
+      <c r="EE23">
+        <v>21</v>
+      </c>
+      <c r="EF23">
+        <v>15</v>
+      </c>
+      <c r="EG23">
+        <v>15</v>
+      </c>
+      <c r="EH23">
+        <v>9</v>
+      </c>
+      <c r="EI23">
+        <v>10</v>
+      </c>
+      <c r="EJ23">
+        <v>14</v>
+      </c>
+      <c r="EK23">
+        <v>19</v>
+      </c>
+      <c r="EL23">
+        <v>6</v>
+      </c>
+      <c r="EM23">
+        <v>19</v>
+      </c>
+      <c r="EN23">
+        <v>25</v>
+      </c>
+      <c r="EO23">
+        <v>12</v>
+      </c>
+      <c r="EP23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -6175,8 +6682,47 @@
       <c r="EC24">
         <v>5</v>
       </c>
+      <c r="ED24">
+        <v>35</v>
+      </c>
+      <c r="EE24">
+        <v>48</v>
+      </c>
+      <c r="EF24">
+        <v>18</v>
+      </c>
+      <c r="EG24">
+        <v>21</v>
+      </c>
+      <c r="EH24">
+        <v>16</v>
+      </c>
+      <c r="EI24">
+        <v>10</v>
+      </c>
+      <c r="EJ24">
+        <v>7</v>
+      </c>
+      <c r="EK24">
+        <v>27</v>
+      </c>
+      <c r="EL24">
+        <v>7</v>
+      </c>
+      <c r="EM24">
+        <v>18</v>
+      </c>
+      <c r="EN24">
+        <v>12</v>
+      </c>
+      <c r="EO24">
+        <v>16</v>
+      </c>
+      <c r="EP24">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -6576,8 +7122,47 @@
       <c r="EC25">
         <v>2</v>
       </c>
+      <c r="ED25">
+        <v>27</v>
+      </c>
+      <c r="EE25">
+        <v>37</v>
+      </c>
+      <c r="EF25">
+        <v>19</v>
+      </c>
+      <c r="EG25">
+        <v>21</v>
+      </c>
+      <c r="EH25">
+        <v>10</v>
+      </c>
+      <c r="EI25">
+        <v>5</v>
+      </c>
+      <c r="EJ25">
+        <v>8</v>
+      </c>
+      <c r="EK25">
+        <v>64</v>
+      </c>
+      <c r="EL25">
+        <v>11</v>
+      </c>
+      <c r="EM25">
+        <v>23</v>
+      </c>
+      <c r="EN25">
+        <v>25</v>
+      </c>
+      <c r="EO25">
+        <v>20</v>
+      </c>
+      <c r="EP25">
+        <v>8</v>
+      </c>
     </row>
-    <row r="26" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -6977,8 +7562,47 @@
       <c r="EC26">
         <v>6</v>
       </c>
+      <c r="ED26">
+        <v>86</v>
+      </c>
+      <c r="EE26">
+        <v>112</v>
+      </c>
+      <c r="EF26">
+        <v>35</v>
+      </c>
+      <c r="EG26">
+        <v>70</v>
+      </c>
+      <c r="EH26">
+        <v>42</v>
+      </c>
+      <c r="EI26">
+        <v>30</v>
+      </c>
+      <c r="EJ26">
+        <v>19</v>
+      </c>
+      <c r="EK26">
+        <v>90</v>
+      </c>
+      <c r="EL26">
+        <v>26</v>
+      </c>
+      <c r="EM26">
+        <v>40</v>
+      </c>
+      <c r="EN26">
+        <v>48</v>
+      </c>
+      <c r="EO26">
+        <v>31</v>
+      </c>
+      <c r="EP26">
+        <v>12</v>
+      </c>
     </row>
-    <row r="27" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -7377,6 +8001,45 @@
       </c>
       <c r="EC27">
         <v>0</v>
+      </c>
+      <c r="ED27">
+        <v>3</v>
+      </c>
+      <c r="EE27">
+        <v>11</v>
+      </c>
+      <c r="EF27">
+        <v>4</v>
+      </c>
+      <c r="EG27">
+        <v>5</v>
+      </c>
+      <c r="EH27">
+        <v>3</v>
+      </c>
+      <c r="EI27">
+        <v>7</v>
+      </c>
+      <c r="EJ27">
+        <v>3</v>
+      </c>
+      <c r="EK27">
+        <v>4</v>
+      </c>
+      <c r="EL27">
+        <v>2</v>
+      </c>
+      <c r="EM27">
+        <v>8</v>
+      </c>
+      <c r="EN27">
+        <v>10</v>
+      </c>
+      <c r="EO27">
+        <v>6</v>
+      </c>
+      <c r="EP27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
